--- a/Note/교안/05_JSP/0607_13.pagingreply.xlsx
+++ b/Note/교안/05_JSP/0607_13.pagingreply.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_Choijinyoung\Note\교안\05_JSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\note\05_JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
     <sheet name="답글로직" sheetId="4" r:id="rId2"/>
+    <sheet name="연습" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>시작번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>((현재페이지 -1)/10)*10 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,7 +206,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(페이지번호 - 1) * 페이지당 갯수+ 1</t>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,15 +222,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil = 올림</t>
+    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,7 +234,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0+1</t>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1+1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,18 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0+1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,15 +254,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  글3-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  글3-1</t>
+    <t xml:space="preserve">   글3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,7 +266,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    글2-3-1</t>
+    <t xml:space="preserve">     글2-3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,7 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,7 +501,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,30 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,15 +862,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,22 +991,19 @@
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,16 +1037,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="3.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="3" customWidth="1"/>
@@ -1102,9 +1075,9 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F1" s="26"/>
       <c r="G1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1125,9 +1098,9 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,9 +1119,9 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,9 +1140,9 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,12 +1156,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1204,14 +1177,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,12 +1198,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="F7" s="27"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1242,18 +1215,18 @@
       <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="22"/>
+      <c r="E8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="27"/>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1263,18 +1236,18 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="27"/>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1284,18 +1257,18 @@
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1309,12 +1282,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,111 +1310,67 @@
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>3</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>10</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>6</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>63</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
-        <v>2</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>8</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <v>9</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="15"/>
       <c r="D21" s="19"/>
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
-        <v>7</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>66</v>
-      </c>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
-        <v>5</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
-        <v>1</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
-        <v>4</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1451,4 +1380,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="22">
+        <v>3</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>10</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>6</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>